--- a/testFiles/p2 test.xlsx
+++ b/testFiles/p2 test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="7" documentId="8_{70455C56-2FB0-48F0-8D3E-296874BF982A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D10D4875-9BE0-4A32-9005-232233946D62}"/>
   <bookViews>
-    <workbookView xWindow="32490" yWindow="-1605" windowWidth="27390" windowHeight="19200" xr2:uid="{576C1B73-47A8-42D2-B460-41E634E34371}"/>
+    <workbookView xWindow="29190" yWindow="-2610" windowWidth="13350" windowHeight="14325" xr2:uid="{576C1B73-47A8-42D2-B460-41E634E34371}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25526,6 +25526,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -25845,8 +25849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC0AE7B-F942-4DE1-B9B0-F1228C85B849}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25910,7 +25914,7 @@
         <v>6/28/2024 1:29:16 PM</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f>TEXT(F2, "mm-dd-yyyy")</f>
+        <f t="shared" ref="G2:G13" si="0">TEXT(F2, "mm-dd-yyyy")</f>
         <v>06-28-2024</v>
       </c>
       <c r="H2" s="16" t="str">
@@ -25955,7 +25959,7 @@
         <v>1/31/2025 5:52:41 PM</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f>TEXT(F3, "mm-dd-yyyy")</f>
+        <f t="shared" si="0"/>
         <v>01-31-2025</v>
       </c>
       <c r="H3" s="16" t="str">
@@ -26007,7 +26011,7 @@
         <v/>
       </c>
       <c r="G4" s="3" t="str">
-        <f>TEXT(F4, "mm-dd-yyyy")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H4" s="16" t="str">
@@ -26052,7 +26056,7 @@
         <v/>
       </c>
       <c r="G5" s="3" t="str">
-        <f>TEXT(F5, "mm-dd-yyyy")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H5" s="16" t="str">
@@ -26097,7 +26101,7 @@
         <v/>
       </c>
       <c r="G6" s="3" t="str">
-        <f>TEXT(F6, "mm-dd-yyyy")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H6" s="16" t="str">
@@ -26142,7 +26146,7 @@
         <v/>
       </c>
       <c r="G7" s="3" t="str">
-        <f>TEXT(F7, "mm-dd-yyyy")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H7" s="16" t="str">
@@ -26187,7 +26191,7 @@
         <v/>
       </c>
       <c r="G8" s="3" t="str">
-        <f>TEXT(F8, "mm-dd-yyyy")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H8" s="16" t="str">
@@ -26232,7 +26236,7 @@
         <v/>
       </c>
       <c r="G9" s="3" t="str">
-        <f>TEXT(F9, "mm-dd-yyyy")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H9" s="16">
@@ -26277,7 +26281,7 @@
         <v/>
       </c>
       <c r="G10" s="3" t="str">
-        <f>TEXT(F10, "mm-dd-yyyy")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H10" s="16" t="str">
@@ -26322,7 +26326,7 @@
         <v/>
       </c>
       <c r="G11" s="3" t="str">
-        <f>TEXT(F11, "mm-dd-yyyy")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H11" s="16" t="str">
@@ -26367,7 +26371,7 @@
         <v/>
       </c>
       <c r="G12" s="3" t="str">
-        <f>TEXT(F12, "mm-dd-yyyy")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H12" s="16" t="str">
@@ -26412,7 +26416,7 @@
         <v>1/23/2025 12:52:22 PM</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f>TEXT(F13, "mm-dd-yyyy")</f>
+        <f t="shared" si="0"/>
         <v>01-23-2025</v>
       </c>
       <c r="H13" s="16">
@@ -26458,7 +26462,7 @@
         <v/>
       </c>
       <c r="G14" s="3" t="str">
-        <f t="shared" ref="G14:G21" si="0">TEXT(F14, "mm-dd-yyyy")</f>
+        <f t="shared" ref="G14:G21" si="1">TEXT(F14, "mm-dd-yyyy")</f>
         <v/>
       </c>
       <c r="H14" s="16" t="str">
@@ -26503,7 +26507,7 @@
         <v/>
       </c>
       <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H15" s="16" t="str">
@@ -26548,7 +26552,7 @@
         <v/>
       </c>
       <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H16" s="16" t="str">
@@ -26593,7 +26597,7 @@
         <v/>
       </c>
       <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H17" s="16" t="str">
@@ -26638,7 +26642,7 @@
         <v/>
       </c>
       <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H18" s="16" t="str">
@@ -26683,7 +26687,7 @@
         <v/>
       </c>
       <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H19" s="16" t="str">
@@ -26728,7 +26732,7 @@
         <v/>
       </c>
       <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H20" s="16">
@@ -26773,7 +26777,7 @@
         <v/>
       </c>
       <c r="G21" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H21" s="16">
